--- a/app/Licenciatura_em_Traducao_Frances_Portugues_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Traducao_Frances_Portugues_Pos_Laboral.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Watifa Mopageira</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Deolinda Arone Pandze</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110100734486M</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
   </si>
   <si>
     <t>Ana Cristina M. A.sambo</t>
-  </si>
-  <si>
-    <t>Distrito de Mavalane</t>
   </si>
   <si>
     <t>110302612300P</t>
@@ -1659,9 +1650,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1669,7 +1658,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1680,7 +1669,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1689,7 +1678,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1701,7 +1690,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1709,7 +1698,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -1805,7 +1794,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -1848,7 +1837,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2175,7 +2164,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2191,7 +2180,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2207,7 +2196,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2223,7 +2212,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2239,7 +2228,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2254,9 +2243,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2264,7 +2251,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2275,7 +2262,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2284,7 +2271,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2296,7 +2283,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2304,7 +2291,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2400,7 +2387,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2443,7 +2430,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2770,7 +2757,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2786,7 +2773,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2802,7 +2789,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2818,7 +2805,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2834,7 +2821,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2849,9 +2836,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2859,7 +2844,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2870,7 +2855,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2879,7 +2864,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2891,7 +2876,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2899,7 +2884,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2995,7 +2980,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3038,7 +3023,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3365,7 +3350,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3381,7 +3366,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3397,7 +3382,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3413,7 +3398,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3429,7 +3414,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3444,9 +3429,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3454,7 +3437,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3465,7 +3448,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3474,7 +3457,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3486,7 +3469,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3494,7 +3477,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3590,7 +3573,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3633,7 +3616,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3960,7 +3943,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3976,7 +3959,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3992,7 +3975,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4008,7 +3991,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4024,7 +4007,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4039,9 +4022,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4049,7 +4030,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4060,7 +4041,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4069,7 +4050,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4081,7 +4062,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4089,7 +4070,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4185,7 +4166,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4228,7 +4209,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4555,7 +4536,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4571,7 +4552,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4587,7 +4568,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4603,7 +4584,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4619,7 +4600,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4634,9 +4615,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4644,7 +4623,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4655,7 +4634,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4664,7 +4643,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4676,7 +4655,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4684,7 +4663,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4780,7 +4759,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4823,7 +4802,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
